--- a/dataExcel/【M4A4 _ X 射线 (久经沙场)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【M4A4 _ X 射线 (久经沙场)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 05:39:10</v>
+        <v>2023-09-19 10:33:53</v>
       </c>
       <c r="B8">
-        <v>78.65</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>86.38</v>
+        <v>84.5</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0.2</v>
@@ -452,24 +452,24 @@
         <v>8</v>
       </c>
       <c r="H8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 09:24:28</v>
+        <v>2023-09-19 14:09:57</v>
       </c>
       <c r="B9">
-        <v>78.65</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>86.38</v>
+        <v>84.5</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0.2</v>
@@ -481,24 +481,24 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 12:56:38</v>
+        <v>2023-09-19 17:48:03</v>
       </c>
       <c r="B10">
-        <v>78.65</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>86.38</v>
+        <v>84.5</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0.2</v>
@@ -510,24 +510,24 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-16 16:41:17</v>
+        <v>2023-09-19 21:28:17</v>
       </c>
       <c r="B11">
-        <v>78.55</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>86.38</v>
+        <v>84.5</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0.2</v>
@@ -539,21 +539,21 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 20:28:02</v>
+        <v>2023-09-20 01:03:49</v>
       </c>
       <c r="B12">
-        <v>78.55</v>
+        <v>80</v>
       </c>
       <c r="C12">
-        <v>86.38</v>
+        <v>84.5</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -568,24 +568,24 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 00:01:33</v>
+        <v>2023-09-20 01:13:03</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>86.38</v>
+        <v>84.5</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0.2</v>
@@ -597,140 +597,140 @@
         <v>8</v>
       </c>
       <c r="H13">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 03:46:23</v>
+        <v>2023-09-20 04:54:26</v>
       </c>
       <c r="B14">
-        <v>77.5</v>
+        <v>80</v>
       </c>
       <c r="C14">
-        <v>85.02</v>
+        <v>84.69</v>
       </c>
       <c r="D14">
         <v>35</v>
       </c>
       <c r="E14">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 07:26:44</v>
+        <v>2023-09-20 08:32:16</v>
       </c>
       <c r="B15">
-        <v>77.5</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>85.02</v>
+        <v>84.69</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 11:00:24</v>
+        <v>2023-09-20 12:14:04</v>
       </c>
       <c r="B16">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>85.02</v>
+        <v>84.69</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F16">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 14:43:51</v>
+        <v>2023-09-20 15:50:11</v>
       </c>
       <c r="B17">
-        <v>82.6</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>85.02</v>
+        <v>84.69</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 18:25:49</v>
+        <v>2023-09-20 19:26:23</v>
       </c>
       <c r="B18">
-        <v>82.5</v>
+        <v>78</v>
       </c>
       <c r="C18">
-        <v>85.02</v>
+        <v>84.69</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0.2</v>
@@ -739,24 +739,24 @@
         <v>0.16</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 22:02:01</v>
+        <v>2023-09-20 19:32:01</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>85.02</v>
+        <v>84.69</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -768,24 +768,24 @@
         <v>0.16</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 01:40:44</v>
+        <v>2023-09-20 23:12:49</v>
       </c>
       <c r="B20">
-        <v>82.5</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>85.02</v>
+        <v>84.69</v>
       </c>
       <c r="D20">
         <v>35</v>
@@ -797,24 +797,24 @@
         <v>0.16</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 05:22:39</v>
+        <v>2023-09-21 02:49:07</v>
       </c>
       <c r="B21">
-        <v>82.5</v>
+        <v>76</v>
       </c>
       <c r="C21">
-        <v>85.02</v>
+        <v>84.56</v>
       </c>
       <c r="D21">
         <v>35</v>
@@ -826,27 +826,27 @@
         <v>0.16</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 09:04:31</v>
+        <v>2023-09-21 06:26:23</v>
       </c>
       <c r="B22">
-        <v>82.5</v>
+        <v>76</v>
       </c>
       <c r="C22">
-        <v>85.02</v>
+        <v>84.56</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0.2</v>
@@ -855,27 +855,27 @@
         <v>0.16</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 12:38:25</v>
+        <v>2023-09-21 10:05:47</v>
       </c>
       <c r="B23">
-        <v>82.5</v>
+        <v>79</v>
       </c>
       <c r="C23">
-        <v>85.02</v>
+        <v>84.56</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0.2</v>
@@ -884,27 +884,27 @@
         <v>0.16</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 16:18:08</v>
+        <v>2023-09-21 13:46:15</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24">
-        <v>85.02</v>
+        <v>84.56</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>0.2</v>
@@ -913,10 +913,10 @@
         <v>0.16</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-18 19:58:25</v>
+        <v>2023-09-21 17:23:27</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>75.8</v>
       </c>
       <c r="C25">
-        <v>85.02</v>
+        <v>84.56</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25">
         <v>0.2</v>
@@ -942,27 +942,27 @@
         <v>0.16</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 23:36:30</v>
+        <v>2023-09-21 21:04:10</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C26">
-        <v>85.02</v>
+        <v>84.56</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0.2</v>
@@ -971,27 +971,27 @@
         <v>0.16</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 03:16:16</v>
+        <v>2023-09-22 00:42:45</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C27">
-        <v>84.5</v>
+        <v>84.56</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>0.2</v>
@@ -1000,27 +1000,27 @@
         <v>0.16</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 06:55:13</v>
+        <v>2023-09-22 04:20:31</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C28">
-        <v>84.5</v>
+        <v>82.48</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -1029,27 +1029,27 @@
         <v>0.16</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 10:33:53</v>
+        <v>2023-09-22 07:56:26</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C29">
-        <v>84.5</v>
+        <v>82.48</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0.2</v>
@@ -1058,27 +1058,27 @@
         <v>0.16</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 14:09:57</v>
+        <v>2023-09-22 11:33:50</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C30">
-        <v>84.5</v>
+        <v>82.48</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>0.2</v>
@@ -1087,27 +1087,27 @@
         <v>0.16</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-19 17:48:03</v>
+        <v>2023-09-22 15:16:34</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C31">
-        <v>84.5</v>
+        <v>82.48</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0.2</v>
@@ -1116,27 +1116,27 @@
         <v>0.16</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-19 21:28:17</v>
+        <v>2023-09-22 18:56:28</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C32">
-        <v>84.5</v>
+        <v>82.48</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>0.2</v>
@@ -1145,27 +1145,27 @@
         <v>0.16</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 01:03:49</v>
+        <v>2023-09-22 22:35:26</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>84.5</v>
+        <v>82.48</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>0.2</v>
@@ -1174,27 +1174,27 @@
         <v>0.16</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 01:13:03</v>
+        <v>2023-09-23 02:16:56</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C34">
-        <v>84.5</v>
+        <v>80.53</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <v>0.2</v>
@@ -1203,27 +1203,27 @@
         <v>0.16</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 04:54:26</v>
+        <v>2023-09-23 05:53:06</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C35">
-        <v>84.69</v>
+        <v>80.53</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E35">
         <v>0.2</v>
@@ -1232,27 +1232,27 @@
         <v>0.16</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I35">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-20 08:32:16</v>
+        <v>2023-09-23 09:29:13</v>
       </c>
       <c r="B36">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C36">
-        <v>84.69</v>
+        <v>80.53</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>0.2</v>
@@ -1261,27 +1261,27 @@
         <v>0.16</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-20 12:14:04</v>
+        <v>2023-09-23 09:35:03</v>
       </c>
       <c r="B37">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C37">
-        <v>84.69</v>
+        <v>80.53</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E37">
         <v>0.2</v>
@@ -1290,10 +1290,10 @@
         <v>0.16</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I37">
         <v>8</v>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-20 15:50:11</v>
+        <v>2023-09-23 13:16:01</v>
       </c>
       <c r="B38">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>84.69</v>
+        <v>80.53</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E38">
         <v>0.2</v>
@@ -1319,7 +1319,7 @@
         <v>0.16</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>65</v>
@@ -1330,16 +1330,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 19:26:23</v>
+        <v>2023-09-23 16:53:04</v>
       </c>
       <c r="B39">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C39">
-        <v>84.69</v>
+        <v>80.53</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E39">
         <v>0.2</v>
@@ -1359,16 +1359,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 19:32:01</v>
+        <v>2023-09-23 20:29:02</v>
       </c>
       <c r="B40">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40">
-        <v>84.69</v>
+        <v>80.53</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>0.2</v>
@@ -1383,21 +1383,21 @@
         <v>65</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-20 23:12:49</v>
+        <v>2023-09-24 00:06:39</v>
       </c>
       <c r="B41">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C41">
-        <v>84.69</v>
+        <v>80.53</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>0.2</v>
@@ -1412,21 +1412,21 @@
         <v>65</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 02:49:07</v>
+        <v>2023-09-24 03:46:03</v>
       </c>
       <c r="B42">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42">
-        <v>84.56</v>
+        <v>76.95</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E42">
         <v>0.2</v>
@@ -1446,16 +1446,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-21 06:26:23</v>
+        <v>2023-09-24 07:27:04</v>
       </c>
       <c r="B43">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C43">
-        <v>84.56</v>
+        <v>76.95</v>
       </c>
       <c r="D43">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>0.2</v>
@@ -1475,25 +1475,25 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 10:05:47</v>
+        <v>2023-09-24 11:04:44</v>
       </c>
       <c r="B44">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C44">
-        <v>84.56</v>
+        <v>76.95</v>
       </c>
       <c r="D44">
         <v>38</v>
       </c>
       <c r="E44">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F44">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H44">
         <v>65</v>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-21 13:46:15</v>
+        <v>2023-09-24 14:44:54</v>
       </c>
       <c r="B45">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C45">
-        <v>84.56</v>
+        <v>76.95</v>
       </c>
       <c r="D45">
         <v>38</v>
       </c>
       <c r="E45">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F45">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>65</v>
@@ -1533,57 +1533,57 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-21 17:23:27</v>
+        <v>2023-09-24 18:21:15</v>
       </c>
       <c r="B46">
-        <v>75.8</v>
+        <v>72.9</v>
       </c>
       <c r="C46">
-        <v>84.56</v>
+        <v>76.95</v>
       </c>
       <c r="D46">
         <v>39</v>
       </c>
       <c r="E46">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F46">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 21:04:10</v>
+        <v>2023-09-24 21:58:37</v>
       </c>
       <c r="B47">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="C47">
-        <v>84.56</v>
+        <v>76.95</v>
       </c>
       <c r="D47">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E47">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F47">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H47">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I47">
         <v>7</v>
@@ -1591,138 +1591,138 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-22 00:42:45</v>
+        <v>2023-09-25 01:37:45</v>
       </c>
       <c r="B48">
-        <v>74</v>
+        <v>72.8</v>
       </c>
       <c r="C48">
-        <v>84.56</v>
+        <v>76.95</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F48">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G48">
         <v>7</v>
       </c>
       <c r="H48">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-22 04:20:31</v>
+        <v>2023-09-25 05:17:38</v>
       </c>
       <c r="B49">
-        <v>74</v>
+        <v>72.8</v>
       </c>
       <c r="C49">
-        <v>82.48</v>
+        <v>77.94</v>
       </c>
       <c r="D49">
         <v>40</v>
       </c>
       <c r="E49">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F49">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G49">
         <v>7</v>
       </c>
       <c r="H49">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-22 07:56:26</v>
+        <v>2023-09-25 08:59:10</v>
       </c>
       <c r="B50">
-        <v>74</v>
+        <v>72.8</v>
       </c>
       <c r="C50">
-        <v>82.48</v>
+        <v>77.94</v>
       </c>
       <c r="D50">
         <v>40</v>
       </c>
       <c r="E50">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F50">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G50">
         <v>7</v>
       </c>
       <c r="H50">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I50">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-22 11:33:50</v>
+        <v>2023-09-25 12:38:25</v>
       </c>
       <c r="B51">
-        <v>74</v>
+        <v>72.9</v>
       </c>
       <c r="C51">
-        <v>82.48</v>
+        <v>77.94</v>
       </c>
       <c r="D51">
         <v>39</v>
       </c>
       <c r="E51">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F51">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G51">
         <v>7</v>
       </c>
       <c r="H51">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-22 15:16:34</v>
+        <v>2023-09-25 16:17:49</v>
       </c>
       <c r="B52">
-        <v>74</v>
+        <v>72.9</v>
       </c>
       <c r="C52">
-        <v>82.48</v>
+        <v>77.94</v>
       </c>
       <c r="D52">
         <v>39</v>
       </c>
       <c r="E52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F52">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G52">
         <v>7</v>
@@ -1736,22 +1736,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-22 18:56:28</v>
+        <v>2023-09-25 19:53:56</v>
       </c>
       <c r="B53">
-        <v>74</v>
+        <v>72.9</v>
       </c>
       <c r="C53">
-        <v>82.48</v>
+        <v>77.94</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F53">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G53">
         <v>7</v>
@@ -1760,56 +1760,56 @@
         <v>65</v>
       </c>
       <c r="I53">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-22 22:35:26</v>
+        <v>2023-09-25 23:32:11</v>
       </c>
       <c r="B54">
-        <v>74</v>
+        <v>72.9</v>
       </c>
       <c r="C54">
-        <v>82.48</v>
+        <v>77.94</v>
       </c>
       <c r="D54">
         <v>40</v>
       </c>
       <c r="E54">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F54">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G54">
         <v>7</v>
       </c>
       <c r="H54">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-23 02:16:56</v>
+        <v>2023-09-26 03:10:27</v>
       </c>
       <c r="B55">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C55">
-        <v>80.53</v>
+        <v>82.23</v>
       </c>
       <c r="D55">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F55">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -1823,22 +1823,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-23 05:53:06</v>
+        <v>2023-09-26 06:45:08</v>
       </c>
       <c r="B56">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C56">
-        <v>80.53</v>
+        <v>82.23</v>
       </c>
       <c r="D56">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F56">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G56">
         <v>7</v>
@@ -1852,22 +1852,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-23 09:29:13</v>
+        <v>2023-09-26 10:22:24</v>
       </c>
       <c r="B57">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C57">
-        <v>80.53</v>
+        <v>82.23</v>
       </c>
       <c r="D57">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E57">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F57">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -1881,22 +1881,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 09:35:03</v>
+        <v>2023-09-26 14:00:59</v>
       </c>
       <c r="B58">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C58">
-        <v>80.53</v>
+        <v>82.23</v>
       </c>
       <c r="D58">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F58">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G58">
         <v>7</v>
@@ -1905,33 +1905,33 @@
         <v>65</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-23 13:16:01</v>
+        <v>2023-09-26 17:40:55</v>
       </c>
       <c r="B59">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C59">
-        <v>80.53</v>
+        <v>82.23</v>
       </c>
       <c r="D59">
         <v>41</v>
       </c>
       <c r="E59">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F59">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G59">
         <v>7</v>
       </c>
       <c r="H59">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I59">
         <v>8</v>
@@ -1939,28 +1939,28 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-23 16:53:04</v>
+        <v>2023-09-26 17:46:42</v>
       </c>
       <c r="B60">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C60">
-        <v>80.53</v>
+        <v>82.23</v>
       </c>
       <c r="D60">
         <v>41</v>
       </c>
       <c r="E60">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F60">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G60">
         <v>7</v>
       </c>
       <c r="H60">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I60">
         <v>8</v>
@@ -1968,144 +1968,144 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-23 20:29:02</v>
+        <v>2023-09-26 21:30:24</v>
       </c>
       <c r="B61">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C61">
-        <v>80.53</v>
+        <v>82.23</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E61">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F61">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G61">
         <v>7</v>
       </c>
       <c r="H61">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-24 00:06:39</v>
+        <v>2023-09-27 01:08:00</v>
       </c>
       <c r="B62">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="C62">
-        <v>80.53</v>
+        <v>82.23</v>
       </c>
       <c r="D62">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E62">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F62">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G62">
         <v>7</v>
       </c>
       <c r="H62">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-24 03:46:03</v>
+        <v>2023-09-27 04:47:34</v>
       </c>
       <c r="B63">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C63">
-        <v>76.95</v>
+        <v>78.98</v>
       </c>
       <c r="D63">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E63">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F63">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G63">
         <v>7</v>
       </c>
       <c r="H63">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-24 07:27:04</v>
+        <v>2023-09-27 08:23:33</v>
       </c>
       <c r="B64">
-        <v>73</v>
+        <v>72.9</v>
       </c>
       <c r="C64">
-        <v>76.95</v>
+        <v>78.98</v>
       </c>
       <c r="D64">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E64">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F64">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G64">
         <v>7</v>
       </c>
       <c r="H64">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-24 11:04:44</v>
+        <v>2023-09-27 13:31:38</v>
       </c>
       <c r="B65">
         <v>73</v>
       </c>
       <c r="C65">
-        <v>76.95</v>
+        <v>78.98</v>
       </c>
       <c r="D65">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F65">
         <v>0.24</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H65">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I65">
         <v>8</v>
@@ -2113,57 +2113,57 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-24 14:44:54</v>
+        <v>2023-09-27 18:41:36</v>
       </c>
       <c r="B66">
         <v>73</v>
       </c>
       <c r="C66">
-        <v>76.95</v>
+        <v>78.98</v>
       </c>
       <c r="D66">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E66">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F66">
         <v>0.24</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H66">
         <v>65</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-24 18:21:15</v>
+        <v>2023-09-27 23:51:35</v>
       </c>
       <c r="B67">
-        <v>72.9</v>
+        <v>73</v>
       </c>
       <c r="C67">
-        <v>76.95</v>
+        <v>78.98</v>
       </c>
       <c r="D67">
         <v>39</v>
       </c>
       <c r="E67">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F67">
         <v>0.24</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I67">
         <v>7</v>
@@ -2171,48 +2171,48 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-24 21:58:37</v>
+        <v>2023-09-28 04:51:59</v>
       </c>
       <c r="B68">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="C68">
-        <v>76.95</v>
+        <v>83.2</v>
       </c>
       <c r="D68">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E68">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F68">
         <v>0.24</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-25 01:37:45</v>
+        <v>2023-09-28 10:01:58</v>
       </c>
       <c r="B69">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="C69">
-        <v>76.95</v>
+        <v>83.2</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E69">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F69">
         <v>0.24</v>
@@ -2221,27 +2221,27 @@
         <v>7</v>
       </c>
       <c r="H69">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-25 05:17:38</v>
+        <v>2023-09-28 15:11:57</v>
       </c>
       <c r="B70">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="C70">
-        <v>77.94</v>
+        <v>83.2</v>
       </c>
       <c r="D70">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E70">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F70">
         <v>0.24</v>
@@ -2250,27 +2250,27 @@
         <v>7</v>
       </c>
       <c r="H70">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I70">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-25 08:59:10</v>
+        <v>2023-09-28 20:12:18</v>
       </c>
       <c r="B71">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="C71">
-        <v>77.94</v>
+        <v>83.2</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E71">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F71">
         <v>0.24</v>
@@ -2279,27 +2279,27 @@
         <v>7</v>
       </c>
       <c r="H71">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-25 12:38:25</v>
+        <v>2023-09-29 01:22:17</v>
       </c>
       <c r="B72">
-        <v>72.9</v>
+        <v>74</v>
       </c>
       <c r="C72">
-        <v>77.94</v>
+        <v>83.2</v>
       </c>
       <c r="D72">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E72">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F72">
         <v>0.24</v>
@@ -2308,27 +2308,27 @@
         <v>7</v>
       </c>
       <c r="H72">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-25 16:17:49</v>
+        <v>2023-09-29 06:24:59</v>
       </c>
       <c r="B73">
-        <v>72.9</v>
+        <v>74</v>
       </c>
       <c r="C73">
-        <v>77.94</v>
+        <v>81.12</v>
       </c>
       <c r="D73">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E73">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F73">
         <v>0.24</v>
@@ -2337,27 +2337,27 @@
         <v>7</v>
       </c>
       <c r="H73">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I73">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-25 19:53:56</v>
+        <v>2023-09-29 11:35:02</v>
       </c>
       <c r="B74">
-        <v>72.9</v>
+        <v>74.5</v>
       </c>
       <c r="C74">
-        <v>77.94</v>
+        <v>81.12</v>
       </c>
       <c r="D74">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E74">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F74">
         <v>0.24</v>
@@ -2366,27 +2366,27 @@
         <v>7</v>
       </c>
       <c r="H74">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-25 23:32:11</v>
+        <v>2023-09-29 16:44:53</v>
       </c>
       <c r="B75">
-        <v>72.9</v>
+        <v>74.5</v>
       </c>
       <c r="C75">
-        <v>77.94</v>
+        <v>81.12</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E75">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F75">
         <v>0.24</v>
@@ -2395,471 +2395,471 @@
         <v>7</v>
       </c>
       <c r="H75">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-26 03:10:27</v>
+        <v>2023-09-29 21:55:41</v>
       </c>
       <c r="B76">
-        <v>72.9</v>
+        <v>74</v>
       </c>
       <c r="C76">
-        <v>82.23</v>
+        <v>81.12</v>
       </c>
       <c r="D76">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E76">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F76">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H76">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I76">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-26 06:45:08</v>
+        <v>2023-09-30 03:02:18</v>
       </c>
       <c r="B77">
-        <v>72.9</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>82.23</v>
+        <v>81.12</v>
       </c>
       <c r="D77">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E77">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F77">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H77">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I77">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-26 10:22:24</v>
+        <v>2023-09-30 08:12:03</v>
       </c>
       <c r="B78">
-        <v>72.9</v>
+        <v>72</v>
       </c>
       <c r="C78">
-        <v>82.23</v>
+        <v>81.12</v>
       </c>
       <c r="D78">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E78">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F78">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-26 14:00:59</v>
+        <v>2023-09-30 13:21:55</v>
       </c>
       <c r="B79">
-        <v>72.9</v>
+        <v>72</v>
       </c>
       <c r="C79">
-        <v>82.23</v>
+        <v>81.12</v>
       </c>
       <c r="D79">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E79">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F79">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H79">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-26 17:40:55</v>
+        <v>2023-09-30 18:30:29</v>
       </c>
       <c r="B80">
-        <v>72.9</v>
+        <v>72</v>
       </c>
       <c r="C80">
-        <v>82.23</v>
+        <v>81.12</v>
       </c>
       <c r="D80">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E80">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F80">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H80">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I80">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-26 17:46:42</v>
+        <v>2023-09-30 23:39:42</v>
       </c>
       <c r="B81">
-        <v>72.9</v>
+        <v>71</v>
       </c>
       <c r="C81">
-        <v>82.23</v>
+        <v>81.12</v>
       </c>
       <c r="D81">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E81">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F81">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I81">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-26 21:30:24</v>
+        <v>2023-10-01 04:52:47</v>
       </c>
       <c r="B82">
-        <v>72.9</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>82.23</v>
+        <v>81.12</v>
       </c>
       <c r="D82">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E82">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F82">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 01:08:00</v>
+        <v>2023-10-01 10:00:00</v>
       </c>
       <c r="B83">
-        <v>72.8</v>
+        <v>72</v>
       </c>
       <c r="C83">
-        <v>82.23</v>
+        <v>81.12</v>
       </c>
       <c r="D83">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E83">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F83">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H83">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I83">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 04:47:34</v>
+        <v>2023-10-01 15:12:10</v>
       </c>
       <c r="B84">
-        <v>72.9</v>
+        <v>72</v>
       </c>
       <c r="C84">
-        <v>78.98</v>
+        <v>81.12</v>
       </c>
       <c r="D84">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E84">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F84">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I84">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-27 08:23:33</v>
+        <v>2023-10-01 20:21:00</v>
       </c>
       <c r="B85">
-        <v>72.9</v>
+        <v>72</v>
       </c>
       <c r="C85">
-        <v>78.98</v>
+        <v>81.12</v>
       </c>
       <c r="D85">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E85">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F85">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H85">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I85">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-27 13:31:38</v>
+        <v>2023-10-02 01:31:28</v>
       </c>
       <c r="B86">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86">
-        <v>78.98</v>
+        <v>81.12</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E86">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F86">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H86">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I86">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-27 18:41:36</v>
+        <v>2023-10-02 06:41:49</v>
       </c>
       <c r="B87">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87">
-        <v>78.98</v>
+        <v>80.92</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E87">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F87">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H87">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I87">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-27 23:51:35</v>
+        <v>2023-10-02 11:50:08</v>
       </c>
       <c r="B88">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88">
-        <v>78.98</v>
+        <v>80.92</v>
       </c>
       <c r="D88">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E88">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F88">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H88">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-28 04:51:59</v>
+        <v>2023-10-02 17:03:02</v>
       </c>
       <c r="B89">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>83.2</v>
+        <v>80.92</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E89">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F89">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H89">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I89">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-28 10:01:58</v>
+        <v>2023-10-02 22:11:44</v>
       </c>
       <c r="B90">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90">
-        <v>83.2</v>
+        <v>80.92</v>
       </c>
       <c r="D90">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E90">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F90">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I90">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-28 15:11:57</v>
+        <v>2023-10-03 03:21:04</v>
       </c>
       <c r="B91">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C91">
-        <v>83.2</v>
+        <v>80.73</v>
       </c>
       <c r="D91">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E91">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F91">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I91">
         <v>5</v>
@@ -2867,103 +2867,103 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-28 20:12:18</v>
+        <v>2023-10-03 08:30:20</v>
       </c>
       <c r="B92">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C92">
-        <v>83.2</v>
+        <v>80.73</v>
       </c>
       <c r="D92">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E92">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F92">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-29 01:22:17</v>
+        <v>2023-10-03 13:41:09</v>
       </c>
       <c r="B93">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C93">
-        <v>83.2</v>
+        <v>80.73</v>
       </c>
       <c r="D93">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E93">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F93">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H93">
         <v>61</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 06:24:59</v>
+        <v>2023-10-03 18:51:27</v>
       </c>
       <c r="B94">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94">
-        <v>81.12</v>
+        <v>80.73</v>
       </c>
       <c r="D94">
         <v>56</v>
       </c>
       <c r="E94">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F94">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H94">
         <v>61</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-29 11:35:02</v>
+        <v>2023-10-04 00:02:03</v>
       </c>
       <c r="B95">
-        <v>74.5</v>
+        <v>72</v>
       </c>
       <c r="C95">
-        <v>81.12</v>
+        <v>80.73</v>
       </c>
       <c r="D95">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E95">
         <v>0.28</v>
@@ -2978,21 +2978,21 @@
         <v>61</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-29 16:44:53</v>
+        <v>2023-10-04 05:12:09</v>
       </c>
       <c r="B96">
-        <v>74.5</v>
+        <v>72</v>
       </c>
       <c r="C96">
-        <v>81.12</v>
+        <v>78.84</v>
       </c>
       <c r="D96">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E96">
         <v>0.28</v>
@@ -3012,83 +3012,83 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-29 21:55:41</v>
+        <v>2023-10-04 10:23:15</v>
       </c>
       <c r="B97">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C97">
-        <v>81.12</v>
+        <v>78.84</v>
       </c>
       <c r="D97">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E97">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F97">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H97">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-30 03:02:18</v>
+        <v>2023-10-04 15:31:05</v>
       </c>
       <c r="B98">
         <v>72</v>
       </c>
       <c r="C98">
-        <v>81.12</v>
+        <v>78.84</v>
       </c>
       <c r="D98">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E98">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F98">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H98">
         <v>61</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-30 08:12:03</v>
+        <v>2023-10-04 20:41:40</v>
       </c>
       <c r="B99">
         <v>72</v>
       </c>
       <c r="C99">
-        <v>81.12</v>
+        <v>78.84</v>
       </c>
       <c r="D99">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E99">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F99">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H99">
         <v>61</v>
@@ -3099,144 +3099,144 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-30 13:21:55</v>
+        <v>2023-10-05 01:53:24</v>
       </c>
       <c r="B100">
-        <v>72</v>
+        <v>71.9</v>
       </c>
       <c r="C100">
-        <v>81.12</v>
+        <v>78.84</v>
       </c>
       <c r="D100">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E100">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F100">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H100">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-30 18:30:29</v>
+        <v>2023-10-05 07:02:42</v>
       </c>
       <c r="B101">
-        <v>72</v>
+        <v>71.9</v>
       </c>
       <c r="C101">
-        <v>81.12</v>
+        <v>84.31</v>
       </c>
       <c r="D101">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E101">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F101">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H101">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-30 23:39:42</v>
+        <v>2023-10-05 12:11:48</v>
       </c>
       <c r="B102">
-        <v>71</v>
+        <v>71.5</v>
       </c>
       <c r="C102">
-        <v>81.12</v>
+        <v>84.31</v>
       </c>
       <c r="D102">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E102">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F102">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H102">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-01 04:52:47</v>
+        <v>2023-10-05 17:21:35</v>
       </c>
       <c r="B103">
-        <v>72</v>
+        <v>69.9</v>
       </c>
       <c r="C103">
-        <v>81.12</v>
+        <v>84.31</v>
       </c>
       <c r="D103">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E103">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F103">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="G103">
         <v>8</v>
       </c>
       <c r="H103">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-01 10:00:00</v>
+        <v>2023-10-05 22:31:35</v>
       </c>
       <c r="B104">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C104">
-        <v>81.12</v>
+        <v>84.31</v>
       </c>
       <c r="D104">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E104">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="F104">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="G104">
         <v>8</v>
       </c>
       <c r="H104">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I104">
         <v>2</v>
@@ -3244,16 +3244,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-01 15:12:10</v>
+        <v>2023-10-06 03:41:31</v>
       </c>
       <c r="B105">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C105">
-        <v>81.12</v>
+        <v>81.97</v>
       </c>
       <c r="D105">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E105">
         <v>0.2</v>
@@ -3262,27 +3262,27 @@
         <v>0.16</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H105">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-01 20:21:00</v>
+        <v>2023-10-06 08:52:25</v>
       </c>
       <c r="B106">
-        <v>72</v>
+        <v>64.9</v>
       </c>
       <c r="C106">
-        <v>81.12</v>
+        <v>81.97</v>
       </c>
       <c r="D106">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E106">
         <v>0.2</v>
@@ -3291,27 +3291,27 @@
         <v>0.16</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H106">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-02 01:31:28</v>
+        <v>2023-10-06 14:02:52</v>
       </c>
       <c r="B107">
-        <v>72</v>
+        <v>69.9</v>
       </c>
       <c r="C107">
-        <v>81.12</v>
+        <v>81.97</v>
       </c>
       <c r="D107">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E107">
         <v>0.2</v>
@@ -3320,68 +3320,68 @@
         <v>0.16</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H107">
         <v>61</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-02 06:41:49</v>
+        <v>2023-10-06 19:13:24</v>
       </c>
       <c r="B108">
-        <v>72</v>
+        <v>69.8</v>
       </c>
       <c r="C108">
-        <v>80.92</v>
+        <v>81.97</v>
       </c>
       <c r="D108">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E108">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F108">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H108">
         <v>61</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-02 11:50:08</v>
+        <v>2023-10-07 00:22:24</v>
       </c>
       <c r="B109">
-        <v>72</v>
+        <v>69.8</v>
       </c>
       <c r="C109">
-        <v>80.92</v>
+        <v>81.97</v>
       </c>
       <c r="D109">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E109">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F109">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H109">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -3389,28 +3389,28 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-02 17:03:02</v>
+        <v>2023-10-07 05:32:02</v>
       </c>
       <c r="B110">
-        <v>72</v>
+        <v>69.8</v>
       </c>
       <c r="C110">
-        <v>80.92</v>
+        <v>88.92</v>
       </c>
       <c r="D110">
         <v>53</v>
       </c>
       <c r="E110">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F110">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H110">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -3418,115 +3418,115 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-02 22:11:44</v>
+        <v>2023-10-07 10:42:52</v>
       </c>
       <c r="B111">
-        <v>72</v>
+        <v>69.5</v>
       </c>
       <c r="C111">
-        <v>80.92</v>
+        <v>88.92</v>
       </c>
       <c r="D111">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E111">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F111">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G111">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H111">
         <v>62</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-03 03:21:04</v>
+        <v>2023-10-07 15:53:33</v>
       </c>
       <c r="B112">
-        <v>72</v>
+        <v>69.5</v>
       </c>
       <c r="C112">
-        <v>80.73</v>
+        <v>88.92</v>
       </c>
       <c r="D112">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E112">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F112">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G112">
         <v>8</v>
       </c>
       <c r="H112">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-03 08:30:20</v>
+        <v>2023-10-07 21:02:18</v>
       </c>
       <c r="B113">
-        <v>72</v>
+        <v>68.9</v>
       </c>
       <c r="C113">
-        <v>80.73</v>
+        <v>88.92</v>
       </c>
       <c r="D113">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E113">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F113">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G113">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H113">
         <v>62</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-03 13:41:09</v>
+        <v>2023-10-08 02:12:18</v>
       </c>
       <c r="B114">
-        <v>72</v>
+        <v>68.9</v>
       </c>
       <c r="C114">
-        <v>80.73</v>
+        <v>88.92</v>
       </c>
       <c r="D114">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E114">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F114">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G114">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H114">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -3534,28 +3534,28 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-03 18:51:27</v>
+        <v>2023-10-08 07:22:17</v>
       </c>
       <c r="B115">
-        <v>72</v>
+        <v>68.8</v>
       </c>
       <c r="C115">
-        <v>80.73</v>
+        <v>88.92</v>
       </c>
       <c r="D115">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E115">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F115">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G115">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H115">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I115">
         <v>3</v>
@@ -3563,28 +3563,28 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-04 00:02:03</v>
+        <v>2023-10-08 12:34:05</v>
       </c>
       <c r="B116">
-        <v>72</v>
+        <v>68.7</v>
       </c>
       <c r="C116">
-        <v>80.73</v>
+        <v>88.92</v>
       </c>
       <c r="D116">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E116">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F116">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H116">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I116">
         <v>3</v>
@@ -3592,115 +3592,115 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-04 05:12:09</v>
+        <v>2023-10-08 17:42:24</v>
       </c>
       <c r="B117">
-        <v>72</v>
+        <v>68.5</v>
       </c>
       <c r="C117">
-        <v>78.84</v>
+        <v>88.92</v>
       </c>
       <c r="D117">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E117">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F117">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-04 10:23:15</v>
+        <v>2023-10-08 22:52:25</v>
       </c>
       <c r="B118">
-        <v>72</v>
+        <v>68.4</v>
       </c>
       <c r="C118">
-        <v>78.84</v>
+        <v>88.92</v>
       </c>
       <c r="D118">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E118">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F118">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H118">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-04 15:31:05</v>
+        <v>2023-10-09 02:30:04</v>
       </c>
       <c r="B119">
-        <v>72</v>
+        <v>68.4</v>
       </c>
       <c r="C119">
-        <v>78.84</v>
+        <v>91.52</v>
       </c>
       <c r="D119">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E119">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F119">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H119">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-04 20:41:40</v>
+        <v>2023-10-09 06:08:50</v>
       </c>
       <c r="B120">
-        <v>72</v>
+        <v>68.4</v>
       </c>
       <c r="C120">
-        <v>78.84</v>
+        <v>91.52</v>
       </c>
       <c r="D120">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E120">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F120">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H120">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I120">
         <v>3</v>
@@ -3708,54 +3708,54 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-05 01:53:24</v>
+        <v>2023-10-09 09:44:49</v>
       </c>
       <c r="B121">
-        <v>71.9</v>
+        <v>68.4</v>
       </c>
       <c r="C121">
-        <v>78.84</v>
+        <v>91.52</v>
       </c>
       <c r="D121">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E121">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F121">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H121">
         <v>62</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-05 07:02:42</v>
+        <v>2023-10-09 13:22:05</v>
       </c>
       <c r="B122">
-        <v>71.9</v>
+        <v>68.4</v>
       </c>
       <c r="C122">
-        <v>84.31</v>
+        <v>91.52</v>
       </c>
       <c r="D122">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E122">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F122">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H122">
         <v>62</v>
@@ -3766,54 +3766,54 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-05 12:11:48</v>
+        <v>2023-10-09 13:27:00</v>
       </c>
       <c r="B123">
-        <v>71.5</v>
+        <v>68.4</v>
       </c>
       <c r="C123">
-        <v>84.31</v>
+        <v>91.52</v>
       </c>
       <c r="D123">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E123">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F123">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H123">
         <v>62</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-05 17:21:35</v>
+        <v>2023-10-09 17:04:10</v>
       </c>
       <c r="B124">
-        <v>69.9</v>
+        <v>68.4</v>
       </c>
       <c r="C124">
-        <v>84.31</v>
+        <v>91.52</v>
       </c>
       <c r="D124">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E124">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F124">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="G124">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H124">
         <v>63</v>
@@ -3824,132 +3824,132 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-05 22:31:35</v>
+        <v>2023-10-09 20:39:17</v>
       </c>
       <c r="B125">
-        <v>65</v>
+        <v>68.4</v>
       </c>
       <c r="C125">
-        <v>84.31</v>
+        <v>91.52</v>
       </c>
       <c r="D125">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E125">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="F125">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="G125">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H125">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-06 03:41:31</v>
+        <v>2023-10-10 00:18:27</v>
       </c>
       <c r="B126">
-        <v>65</v>
+        <v>68.4</v>
       </c>
       <c r="C126">
-        <v>81.97</v>
+        <v>91.52</v>
       </c>
       <c r="D126">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E126">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F126">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G126">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H126">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-06 08:52:25</v>
+        <v>2023-10-10 03:58:37</v>
       </c>
       <c r="B127">
-        <v>64.9</v>
+        <v>68.4</v>
       </c>
       <c r="C127">
-        <v>81.97</v>
+        <v>88.92</v>
       </c>
       <c r="D127">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E127">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F127">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G127">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H127">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-06 14:02:52</v>
+        <v>2023-10-10 07:38:43</v>
       </c>
       <c r="B128">
-        <v>69.9</v>
+        <v>68.4</v>
       </c>
       <c r="C128">
-        <v>81.97</v>
+        <v>88.92</v>
       </c>
       <c r="D128">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E128">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F128">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G128">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H128">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-06 19:13:24</v>
+        <v>2023-10-10 11:19:26</v>
       </c>
       <c r="B129">
-        <v>69.8</v>
+        <v>68.4</v>
       </c>
       <c r="C129">
-        <v>81.97</v>
+        <v>88.92</v>
       </c>
       <c r="D129">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E129">
         <v>0.1</v>
@@ -3958,27 +3958,27 @@
         <v>0.08</v>
       </c>
       <c r="G129">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H129">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-07 00:22:24</v>
+        <v>2023-10-10 14:59:57</v>
       </c>
       <c r="B130">
-        <v>69.8</v>
+        <v>68.3</v>
       </c>
       <c r="C130">
-        <v>81.97</v>
+        <v>88.92</v>
       </c>
       <c r="D130">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E130">
         <v>0.1</v>
@@ -3987,27 +3987,27 @@
         <v>0.08</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H130">
         <v>62</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-07 05:32:02</v>
+        <v>2023-10-10 18:38:08</v>
       </c>
       <c r="B131">
-        <v>69.8</v>
+        <v>68.3</v>
       </c>
       <c r="C131">
         <v>88.92</v>
       </c>
       <c r="D131">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E131">
         <v>0.1</v>
@@ -4016,27 +4016,27 @@
         <v>0.08</v>
       </c>
       <c r="G131">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H131">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-07 10:42:52</v>
+        <v>2023-10-10 22:16:02</v>
       </c>
       <c r="B132">
-        <v>69.5</v>
+        <v>68.3</v>
       </c>
       <c r="C132">
         <v>88.92</v>
       </c>
       <c r="D132">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E132">
         <v>0.1</v>
@@ -4045,7 +4045,7 @@
         <v>0.08</v>
       </c>
       <c r="G132">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H132">
         <v>62</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-07 15:53:33</v>
+        <v>2023-10-11 01:52:40</v>
       </c>
       <c r="B133">
-        <v>69.5</v>
+        <v>68.5</v>
       </c>
       <c r="C133">
         <v>88.92</v>
       </c>
       <c r="D133">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E133">
         <v>0.1</v>
@@ -4074,27 +4074,27 @@
         <v>0.08</v>
       </c>
       <c r="G133">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H133">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-07 21:02:18</v>
+        <v>2023-10-11 05:30:47</v>
       </c>
       <c r="B134">
-        <v>68.9</v>
+        <v>70</v>
       </c>
       <c r="C134">
-        <v>88.92</v>
+        <v>99.77</v>
       </c>
       <c r="D134">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E134">
         <v>0.1</v>
@@ -4103,7 +4103,7 @@
         <v>0.08</v>
       </c>
       <c r="G134">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H134">
         <v>62</v>
@@ -4114,16 +4114,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-08 02:12:18</v>
+        <v>2023-10-11 09:08:49</v>
       </c>
       <c r="B135">
-        <v>68.9</v>
+        <v>70</v>
       </c>
       <c r="C135">
-        <v>88.92</v>
+        <v>99.77</v>
       </c>
       <c r="D135">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E135">
         <v>0.1</v>
@@ -4132,7 +4132,7 @@
         <v>0.08</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H135">
         <v>62</v>
@@ -4143,16 +4143,16 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-08 07:22:17</v>
+        <v>2023-10-11 12:51:25</v>
       </c>
       <c r="B136">
-        <v>68.8</v>
+        <v>70</v>
       </c>
       <c r="C136">
-        <v>88.92</v>
+        <v>99.77</v>
       </c>
       <c r="D136">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E136">
         <v>0.1</v>
@@ -4161,7 +4161,7 @@
         <v>0.08</v>
       </c>
       <c r="G136">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H136">
         <v>62</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-08 12:34:05</v>
+        <v>2023-10-11 16:30:48</v>
       </c>
       <c r="B137">
-        <v>68.7</v>
+        <v>70</v>
       </c>
       <c r="C137">
-        <v>88.92</v>
+        <v>99.77</v>
       </c>
       <c r="D137">
         <v>49</v>
@@ -4190,24 +4190,24 @@
         <v>0.08</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H137">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-08 17:42:24</v>
+        <v>2023-10-11 20:10:59</v>
       </c>
       <c r="B138">
-        <v>68.5</v>
+        <v>70</v>
       </c>
       <c r="C138">
-        <v>88.92</v>
+        <v>99.77</v>
       </c>
       <c r="D138">
         <v>49</v>
@@ -4219,27 +4219,27 @@
         <v>0.08</v>
       </c>
       <c r="G138">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H138">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-08 22:52:25</v>
+        <v>2023-10-11 23:46:32</v>
       </c>
       <c r="B139">
-        <v>68.4</v>
+        <v>70</v>
       </c>
       <c r="C139">
-        <v>88.92</v>
+        <v>99.77</v>
       </c>
       <c r="D139">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E139">
         <v>0.1</v>
@@ -4248,27 +4248,27 @@
         <v>0.08</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H139">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-09 02:30:04</v>
+        <v>2023-10-12 03:23:01</v>
       </c>
       <c r="B140">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C140">
-        <v>91.52</v>
+        <v>99.58</v>
       </c>
       <c r="D140">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E140">
         <v>0.1</v>
@@ -4277,27 +4277,27 @@
         <v>0.08</v>
       </c>
       <c r="G140">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H140">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-09 06:08:50</v>
+        <v>2023-10-12 07:01:21</v>
       </c>
       <c r="B141">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C141">
-        <v>91.52</v>
+        <v>99.58</v>
       </c>
       <c r="D141">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E141">
         <v>0.1</v>
@@ -4306,27 +4306,27 @@
         <v>0.08</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H141">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-09 09:44:49</v>
+        <v>2023-10-12 10:39:33</v>
       </c>
       <c r="B142">
-        <v>68.4</v>
+        <v>71.8</v>
       </c>
       <c r="C142">
-        <v>91.52</v>
+        <v>99.58</v>
       </c>
       <c r="D142">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E142">
         <v>0.1</v>
@@ -4335,24 +4335,24 @@
         <v>0.08</v>
       </c>
       <c r="G142">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H142">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-09 13:22:05</v>
+        <v>2023-10-12 14:22:29</v>
       </c>
       <c r="B143">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C143">
-        <v>91.52</v>
+        <v>99.58</v>
       </c>
       <c r="D143">
         <v>48</v>
@@ -4364,24 +4364,24 @@
         <v>0.08</v>
       </c>
       <c r="G143">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H143">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-09 13:27:00</v>
+        <v>2023-10-12 18:00:53</v>
       </c>
       <c r="B144">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C144">
-        <v>91.52</v>
+        <v>99.58</v>
       </c>
       <c r="D144">
         <v>48</v>
@@ -4393,27 +4393,27 @@
         <v>0.08</v>
       </c>
       <c r="G144">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H144">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-09 17:04:10</v>
+        <v>2023-10-12 21:41:17</v>
       </c>
       <c r="B145">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C145">
-        <v>91.52</v>
+        <v>99.58</v>
       </c>
       <c r="D145">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E145">
         <v>0.1</v>
@@ -4422,24 +4422,24 @@
         <v>0.08</v>
       </c>
       <c r="G145">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H145">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-09 20:39:17</v>
+        <v>2023-10-13 01:22:39</v>
       </c>
       <c r="B146">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C146">
-        <v>91.52</v>
+        <v>99.58</v>
       </c>
       <c r="D146">
         <v>48</v>
@@ -4451,387 +4451,387 @@
         <v>0.08</v>
       </c>
       <c r="G146">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H146">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-10 00:18:27</v>
+        <v>2023-10-13 05:02:13</v>
       </c>
       <c r="B147">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C147">
-        <v>91.52</v>
+        <v>89.89</v>
       </c>
       <c r="D147">
         <v>48</v>
       </c>
       <c r="E147">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F147">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G147">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H147">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-10 03:58:37</v>
+        <v>2023-10-13 08:42:05</v>
       </c>
       <c r="B148">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C148">
-        <v>88.92</v>
+        <v>89.89</v>
       </c>
       <c r="D148">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E148">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F148">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G148">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H148">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-10 07:38:43</v>
+        <v>2023-10-13 12:20:48</v>
       </c>
       <c r="B149">
-        <v>68.4</v>
+        <v>72</v>
       </c>
       <c r="C149">
-        <v>88.92</v>
+        <v>89.89</v>
       </c>
       <c r="D149">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E149">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F149">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G149">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H149">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I149">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-10 11:19:26</v>
+        <v>2023-10-13 16:03:14</v>
       </c>
       <c r="B150">
-        <v>68.4</v>
+        <v>71.88</v>
       </c>
       <c r="C150">
-        <v>88.92</v>
+        <v>89.89</v>
       </c>
       <c r="D150">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E150">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F150">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G150">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H150">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I150">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-10 14:59:57</v>
+        <v>2023-10-13 19:42:57</v>
       </c>
       <c r="B151">
-        <v>68.3</v>
+        <v>71.88</v>
       </c>
       <c r="C151">
-        <v>88.92</v>
+        <v>89.89</v>
       </c>
       <c r="D151">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E151">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F151">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G151">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H151">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I151">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-10 18:38:08</v>
+        <v>2023-10-13 23:23:22</v>
       </c>
       <c r="B152">
-        <v>68.3</v>
+        <v>71.88</v>
       </c>
       <c r="C152">
-        <v>88.92</v>
+        <v>89.89</v>
       </c>
       <c r="D152">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E152">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F152">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G152">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H152">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-10 22:16:02</v>
+        <v>2023-10-14 03:03:13</v>
       </c>
       <c r="B153">
-        <v>68.3</v>
+        <v>71.88</v>
       </c>
       <c r="C153">
-        <v>88.92</v>
+        <v>89.96</v>
       </c>
       <c r="D153">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E153">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F153">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G153">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H153">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-11 01:52:40</v>
+        <v>2023-10-14 06:43:14</v>
       </c>
       <c r="B154">
-        <v>68.5</v>
+        <v>71.88</v>
       </c>
       <c r="C154">
-        <v>88.92</v>
+        <v>89.96</v>
       </c>
       <c r="D154">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E154">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F154">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G154">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H154">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-11 05:30:47</v>
+        <v>2023-10-14 10:22:12</v>
       </c>
       <c r="B155">
-        <v>70</v>
+        <v>71.88</v>
       </c>
       <c r="C155">
-        <v>99.77</v>
+        <v>89.96</v>
       </c>
       <c r="D155">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E155">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F155">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G155">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H155">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-11 09:08:49</v>
+        <v>2023-10-14 13:58:41</v>
       </c>
       <c r="B156">
-        <v>70</v>
+        <v>71.88</v>
       </c>
       <c r="C156">
-        <v>99.77</v>
+        <v>89.96</v>
       </c>
       <c r="D156">
         <v>52</v>
       </c>
       <c r="E156">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F156">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G156">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H156">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-11 12:51:25</v>
+        <v>2023-10-14 17:35:42</v>
       </c>
       <c r="B157">
-        <v>70</v>
+        <v>71.88</v>
       </c>
       <c r="C157">
-        <v>99.77</v>
+        <v>89.96</v>
       </c>
       <c r="D157">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E157">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F157">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G157">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H157">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-11 16:30:48</v>
+        <v>2023-10-14 21:14:33</v>
       </c>
       <c r="B158">
-        <v>70</v>
+        <v>71.88</v>
       </c>
       <c r="C158">
-        <v>99.77</v>
+        <v>89.96</v>
       </c>
       <c r="D158">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E158">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F158">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G158">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H158">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I158">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-11 20:10:59</v>
+        <v>2023-10-15 00:52:51</v>
       </c>
       <c r="B159">
-        <v>70</v>
+        <v>71.88</v>
       </c>
       <c r="C159">
-        <v>99.77</v>
+        <v>89.96</v>
       </c>
       <c r="D159">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E159">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F159">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G159">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H159">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I159">
         <v>6</v>
@@ -4839,144 +4839,144 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-11 23:46:32</v>
+        <v>2023-10-15 04:34:00</v>
       </c>
       <c r="B160">
-        <v>70</v>
+        <v>71.88</v>
       </c>
       <c r="C160">
-        <v>99.77</v>
+        <v>88.92</v>
       </c>
       <c r="D160">
         <v>50</v>
       </c>
       <c r="E160">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F160">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G160">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H160">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I160">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-12 03:23:01</v>
+        <v>2023-10-15 08:13:36</v>
       </c>
       <c r="B161">
-        <v>72</v>
+        <v>71.88</v>
       </c>
       <c r="C161">
-        <v>99.58</v>
+        <v>88.92</v>
       </c>
       <c r="D161">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E161">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F161">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G161">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H161">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I161">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-12 07:01:21</v>
+        <v>2023-10-15 11:53:46</v>
       </c>
       <c r="B162">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C162">
-        <v>99.58</v>
+        <v>88.92</v>
       </c>
       <c r="D162">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E162">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F162">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G162">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H162">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I162">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-12 10:39:33</v>
+        <v>2023-10-15 15:34:00</v>
       </c>
       <c r="B163">
-        <v>71.8</v>
+        <v>70.9</v>
       </c>
       <c r="C163">
-        <v>99.58</v>
+        <v>88.92</v>
       </c>
       <c r="D163">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E163">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F163">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G163">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H163">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I163">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-12 14:22:29</v>
+        <v>2023-10-15 19:12:55</v>
       </c>
       <c r="B164">
-        <v>72</v>
+        <v>70.9</v>
       </c>
       <c r="C164">
-        <v>99.58</v>
+        <v>88.92</v>
       </c>
       <c r="D164">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E164">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F164">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G164">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H164">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I164">
         <v>5</v>
@@ -4984,28 +4984,28 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-12 18:00:53</v>
+        <v>2023-10-15 22:53:10</v>
       </c>
       <c r="B165">
-        <v>72</v>
+        <v>70.8</v>
       </c>
       <c r="C165">
-        <v>99.58</v>
+        <v>88.92</v>
       </c>
       <c r="D165">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E165">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F165">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G165">
         <v>19</v>
       </c>
       <c r="H165">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I165">
         <v>5</v>
@@ -5013,22 +5013,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-12 21:41:17</v>
+        <v>2023-10-16 02:31:38</v>
       </c>
       <c r="B166">
-        <v>72</v>
+        <v>70.8</v>
       </c>
       <c r="C166">
-        <v>99.58</v>
+        <v>90.02</v>
       </c>
       <c r="D166">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E166">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F166">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G166">
         <v>18</v>
@@ -5037,27 +5037,27 @@
         <v>66</v>
       </c>
       <c r="I166">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-13 01:22:39</v>
+        <v>2023-10-16 06:07:07</v>
       </c>
       <c r="B167">
-        <v>72</v>
+        <v>70.8</v>
       </c>
       <c r="C167">
-        <v>99.58</v>
+        <v>90.02</v>
       </c>
       <c r="D167">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E167">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F167">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G167">
         <v>18</v>
@@ -5071,25 +5071,25 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-13 05:02:13</v>
+        <v>2023-10-16 06:13:16</v>
       </c>
       <c r="B168">
-        <v>72</v>
+        <v>70.8</v>
       </c>
       <c r="C168">
-        <v>89.89</v>
+        <v>90.02</v>
       </c>
       <c r="D168">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E168">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F168">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G168">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H168">
         <v>66</v>
@@ -5100,25 +5100,25 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-13 08:42:05</v>
+        <v>2023-10-16 09:52:34</v>
       </c>
       <c r="B169">
-        <v>72</v>
+        <v>70.7</v>
       </c>
       <c r="C169">
-        <v>89.89</v>
+        <v>90.02</v>
       </c>
       <c r="D169">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E169">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F169">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G169">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H169">
         <v>66</v>
@@ -5129,25 +5129,25 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-13 12:20:48</v>
+        <v>2023-10-16 13:33:00</v>
       </c>
       <c r="B170">
         <v>72</v>
       </c>
       <c r="C170">
-        <v>89.89</v>
+        <v>90.02</v>
       </c>
       <c r="D170">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E170">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G170">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H170">
         <v>66</v>
@@ -5158,16 +5158,16 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-13 16:03:14</v>
+        <v>2023-10-16 17:12:58</v>
       </c>
       <c r="B171">
-        <v>71.88</v>
+        <v>72</v>
       </c>
       <c r="C171">
-        <v>89.89</v>
+        <v>90.02</v>
       </c>
       <c r="D171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E171">
         <v>0.14</v>
@@ -5176,27 +5176,27 @@
         <v>0.11</v>
       </c>
       <c r="G171">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H171">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I171">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-13 19:42:57</v>
+        <v>2023-10-16 20:53:32</v>
       </c>
       <c r="B172">
-        <v>71.88</v>
+        <v>72</v>
       </c>
       <c r="C172">
-        <v>89.89</v>
+        <v>90.02</v>
       </c>
       <c r="D172">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E172">
         <v>0.14</v>
@@ -5205,27 +5205,27 @@
         <v>0.11</v>
       </c>
       <c r="G172">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H172">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I172">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-13 23:23:22</v>
+        <v>2023-10-17 00:33:02</v>
       </c>
       <c r="B173">
-        <v>71.88</v>
+        <v>72</v>
       </c>
       <c r="C173">
-        <v>89.89</v>
+        <v>90.02</v>
       </c>
       <c r="D173">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E173">
         <v>0.14</v>
@@ -5237,21 +5237,21 @@
         <v>19</v>
       </c>
       <c r="H173">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I173">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-14 03:03:13</v>
+        <v>2023-10-17 04:11:36</v>
       </c>
       <c r="B174">
-        <v>71.88</v>
+        <v>69.12</v>
       </c>
       <c r="C174">
-        <v>89.96</v>
+        <v>91.45</v>
       </c>
       <c r="D174">
         <v>52</v>
@@ -5266,21 +5266,21 @@
         <v>19</v>
       </c>
       <c r="H174">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I174">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-14 06:43:14</v>
+        <v>2023-10-17 07:45:26</v>
       </c>
       <c r="B175">
-        <v>71.88</v>
+        <v>69.12</v>
       </c>
       <c r="C175">
-        <v>89.96</v>
+        <v>91.45</v>
       </c>
       <c r="D175">
         <v>52</v>
@@ -5295,21 +5295,21 @@
         <v>19</v>
       </c>
       <c r="H175">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I175">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-14 10:22:12</v>
+        <v>2023-10-17 07:52:48</v>
       </c>
       <c r="B176">
-        <v>71.88</v>
+        <v>69.12</v>
       </c>
       <c r="C176">
-        <v>89.96</v>
+        <v>91.45</v>
       </c>
       <c r="D176">
         <v>52</v>
@@ -5324,24 +5324,24 @@
         <v>19</v>
       </c>
       <c r="H176">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I176">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-14 13:58:41</v>
+        <v>2023-10-17 11:33:14</v>
       </c>
       <c r="B177">
-        <v>71.88</v>
+        <v>69.12</v>
       </c>
       <c r="C177">
-        <v>89.96</v>
+        <v>91.45</v>
       </c>
       <c r="D177">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E177">
         <v>0.14</v>
@@ -5353,24 +5353,24 @@
         <v>19</v>
       </c>
       <c r="H177">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I177">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-14 17:35:42</v>
+        <v>2023-10-17 15:13:24</v>
       </c>
       <c r="B178">
-        <v>71.88</v>
+        <v>69.12</v>
       </c>
       <c r="C178">
-        <v>89.96</v>
+        <v>91.45</v>
       </c>
       <c r="D178">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E178">
         <v>0.14</v>
@@ -5382,24 +5382,24 @@
         <v>19</v>
       </c>
       <c r="H178">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I178">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-14 21:14:33</v>
+        <v>2023-10-17 18:53:51</v>
       </c>
       <c r="B179">
-        <v>71.88</v>
+        <v>69.02</v>
       </c>
       <c r="C179">
-        <v>89.96</v>
+        <v>91.45</v>
       </c>
       <c r="D179">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E179">
         <v>0.14</v>
@@ -5411,24 +5411,24 @@
         <v>19</v>
       </c>
       <c r="H179">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I179">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-15 00:52:51</v>
+        <v>2023-10-17 22:34:29</v>
       </c>
       <c r="B180">
-        <v>71.88</v>
+        <v>69.12</v>
       </c>
       <c r="C180">
-        <v>89.96</v>
+        <v>91.45</v>
       </c>
       <c r="D180">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E180">
         <v>0.14</v>
@@ -5437,27 +5437,27 @@
         <v>0.11</v>
       </c>
       <c r="G180">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H180">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I180">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-15 04:34:00</v>
+        <v>2023-10-18 02:13:06</v>
       </c>
       <c r="B181">
-        <v>71.88</v>
+        <v>69.12</v>
       </c>
       <c r="C181">
-        <v>88.92</v>
+        <v>95.42</v>
       </c>
       <c r="D181">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E181">
         <v>0.14</v>
@@ -5466,27 +5466,27 @@
         <v>0.11</v>
       </c>
       <c r="G181">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H181">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I181">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-15 08:13:36</v>
+        <v>2023-10-18 05:50:33</v>
       </c>
       <c r="B182">
-        <v>71.88</v>
+        <v>69.12</v>
       </c>
       <c r="C182">
-        <v>88.92</v>
+        <v>95.42</v>
       </c>
       <c r="D182">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E182">
         <v>0.14</v>
@@ -5495,27 +5495,27 @@
         <v>0.11</v>
       </c>
       <c r="G182">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H182">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I182">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-15 11:53:46</v>
+        <v>2023-10-18 09:25:44</v>
       </c>
       <c r="B183">
-        <v>71</v>
+        <v>69.12</v>
       </c>
       <c r="C183">
-        <v>88.92</v>
+        <v>95.42</v>
       </c>
       <c r="D183">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E183">
         <v>0.14</v>
@@ -5524,27 +5524,27 @@
         <v>0.11</v>
       </c>
       <c r="G183">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H183">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I183">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-15 15:34:00</v>
+        <v>2023-10-18 13:03:38</v>
       </c>
       <c r="B184">
-        <v>70.9</v>
+        <v>69.12</v>
       </c>
       <c r="C184">
-        <v>88.92</v>
+        <v>95.42</v>
       </c>
       <c r="D184">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E184">
         <v>0.14</v>
@@ -5553,27 +5553,27 @@
         <v>0.11</v>
       </c>
       <c r="G184">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H184">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I184">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-15 19:12:55</v>
+        <v>2023-10-18 16:42:20</v>
       </c>
       <c r="B185">
-        <v>70.9</v>
+        <v>69.12</v>
       </c>
       <c r="C185">
-        <v>88.92</v>
+        <v>95.42</v>
       </c>
       <c r="D185">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E185">
         <v>0.14</v>
@@ -5582,13 +5582,129 @@
         <v>0.11</v>
       </c>
       <c r="G185">
+        <v>18</v>
+      </c>
+      <c r="H185">
+        <v>63</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>2023-10-18 20:17:12</v>
+      </c>
+      <c r="B186">
+        <v>69.12</v>
+      </c>
+      <c r="C186">
+        <v>95.42</v>
+      </c>
+      <c r="D186">
+        <v>55</v>
+      </c>
+      <c r="E186">
+        <v>0.14</v>
+      </c>
+      <c r="F186">
+        <v>0.11</v>
+      </c>
+      <c r="G186">
         <v>19</v>
       </c>
-      <c r="H185">
-        <v>66</v>
-      </c>
-      <c r="I185">
-        <v>5</v>
+      <c r="H186">
+        <v>63</v>
+      </c>
+      <c r="I186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>2023-10-18 23:54:31</v>
+      </c>
+      <c r="B187">
+        <v>71</v>
+      </c>
+      <c r="C187">
+        <v>95.42</v>
+      </c>
+      <c r="D187">
+        <v>54</v>
+      </c>
+      <c r="E187">
+        <v>0.14</v>
+      </c>
+      <c r="F187">
+        <v>0.11</v>
+      </c>
+      <c r="G187">
+        <v>18</v>
+      </c>
+      <c r="H187">
+        <v>63</v>
+      </c>
+      <c r="I187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>2023-10-19 03:34:32</v>
+      </c>
+      <c r="B188">
+        <v>71</v>
+      </c>
+      <c r="C188">
+        <v>89.18</v>
+      </c>
+      <c r="D188">
+        <v>54</v>
+      </c>
+      <c r="E188">
+        <v>0.14</v>
+      </c>
+      <c r="F188">
+        <v>0.11</v>
+      </c>
+      <c r="G188">
+        <v>18</v>
+      </c>
+      <c r="H188">
+        <v>63</v>
+      </c>
+      <c r="I188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>2023-10-19 07:14:34</v>
+      </c>
+      <c r="B189">
+        <v>69.12</v>
+      </c>
+      <c r="C189">
+        <v>89.18</v>
+      </c>
+      <c r="D189">
+        <v>55</v>
+      </c>
+      <c r="E189">
+        <v>0.14</v>
+      </c>
+      <c r="F189">
+        <v>0.11</v>
+      </c>
+      <c r="G189">
+        <v>19</v>
+      </c>
+      <c r="H189">
+        <v>63</v>
+      </c>
+      <c r="I189">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5600,7 +5716,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I185"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I189"/>
   </ignoredErrors>
 </worksheet>
 </file>